--- a/data/FAQ_260121.xlsx
+++ b/data/FAQ_260121.xlsx
@@ -485,7 +485,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -539,14 +543,10 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Y</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -569,7 +569,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -595,11 +599,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -659,11 +659,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -941,7 +937,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1073,11 +1073,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1166,7 +1162,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
@@ -1446,7 +1442,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1472,11 +1472,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1528,11 +1524,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1558,7 +1550,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1585,7 +1581,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr"/>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1611,7 +1611,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr"/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1701,11 +1705,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1727,7 +1727,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1749,11 +1753,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Y</t>
-        </is>
-      </c>
+      <c r="F45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1775,7 +1775,11 @@
           <t>Y</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr"/>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1800,7 +1804,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1903,11 +1907,7 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
+      <c r="F51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/FAQ_260121.xlsx
+++ b/data/FAQ_260121.xlsx
@@ -477,7 +477,7 @@
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>죄송하지만, K5 차량의 매뉴얼에는 전자식 시트 조절 방법에 대한 정보가 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -507,8 +507,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>죄송하지만, K5 차량은 4륜구동 차량이 아닙니다. K5에 대한 구체적인 정보는 제공된 매뉴얼에 포함되어 있지 않으므로, 4륜구동 차량을 원하신다면 다른 차종을 고려해 주시기 바랍니다. 
-자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -538,15 +537,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>K5의 기어 변속 방식에 대한 구체적인 정보는 제공된 문서에 포함되어 있지 않습니다. 따라서 기어 변속 방식에 대한 자세한 내용을 확인하시려면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -560,8 +563,7 @@
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>아이오닉 5에 USB를 꽂았는데 충전이 안 되는 경우, 차량의 USB 포트가 전원 공급 기능이 있는지 확인해 보셔야 합니다. 하지만 제공된 매뉴얼에는 USB 포트에 대한 정보가 포함되어 있지 않아서, 정확한 원인을 말씀드리기 어렵습니다.
-이와 관련된 문제는 쏘카 고객센터(1661-3315)로 문의해 주시면 더 정확한 도움을 받으실 수 있습니다.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -617,11 +619,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>차량에 경고등이 점등되고 엑셀을 밟아도 차가 움직이지 않는 경우, 가시동 상태일 수 있습니다. 이럴 때는 다음과 같이 해보세요:
+          <t>차량 경고등이 점등되고 엑셀을 밟아도 차가 움직이지 않는 경우에는 가시동 상태일 수 있습니다. 이럴 때는 다음과 같이 해주세요:
 1. 시동 버튼을 한 번 또는 두 번 눌러 시동을 끕니다.
-2. 브레이크를 밟은 상태에서 시동 버튼을 다시 눌러주세요.
-3. 기어가 P(주차) 상태인지 확인한 후, 브레이크를 밟고 시동 버튼을 눌러야 합니다.
-이 과정을 통해 차량이 정상적으로 작동할 수 있습니다. 만약 문제가 지속된다면, 쏘카 고객센터(1661-3315)로 문의해 주세요. 안전 운전하세요!</t>
+2. 브레이크를 밟은 상태에서 시동 버튼을 다시 눌러 시동을 겁니다.
+또한, 기어가 P에 있는지 확인하는 것도 중요합니다. 기어가 P 상태일 때만 시동이 걸리니 꼭 확인해 주세요.
+안전 운전하시고, 추가적인 도움이 필요하시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -677,11 +679,8 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>니로 EV의 전기 충전구가 열리지 않는 경우, 다음 단계를 시도해 보세요:
-1. **충전구 위치 확인**: 니로 EV의 충전구는 차량 전면부, 본넷 하단에 위치해 있습니다.
-2. **충전구 개폐**: 충전구를 눌러서 개폐해 보세요. 충전구는 손으로 눌러야 열립니다.
-3. **충전기에서 '충전 완료' 버튼 확인**: 충전이 완료된 후, 충전기 화면에서 '충전 완료' 버튼을 눌러야 충전 커넥터가 해제될 수 있습니다.
-만약 위의 방법으로도 충전구가 열리지 않는다면, 차량에 문제가 있을 수 있으니 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>니로 EV 차량의 전기 충전구가 열리지 않는 경우, 충전구 개폐를 위해 충전구를 눌러보시기 바랍니다. 충전구는 차량 전면부(본넷 하단)에 위치해 있습니다. 
+만약 여전히 열리지 않는다면, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -739,20 +738,16 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>K5 차량의 블루투스 연결 방법은 다음과 같습니다:
-1. **차량 내비게이션에서 설정**:
-   - 아틀란 내비게이션을 사용하는 경우: 
-     - 우측의 [PHONE]을 터치합니다.
-     - 우측 하단의 버튼을 눌러 [예]를 선택합니다.
-   - 순정(UVO) 내비게이션을 사용하는 경우:
-     - 메인 화면에서 [설정] &gt; [기기연결] &gt; [신규 기기 추가]를 차례로 선택합니다.
-2. **휴대폰에서 블루투스 설정**:
+1. **아틀란 내비게이션 사용 시**:
+   - 우측의 [PHONE] 버튼을 터치합니다.
+   - 우측 하단의 버튼을 눌러 [예]를 선택합니다.
+2. **휴대폰 블루투스 설정**:
    - 휴대폰의 블루투스 설정에서 예약하신 차량명(K5)을 선택합니다.
    - 내비게이션 화면에서 패스워드 일치 여부를 묻는 안내창이 나오면 [예]를 선택합니다.
-3. **소리 문제 해결**:
-   - 만약 볼륨을 키워도 소리가 나오지 않는 경우, 우측의 [AUDIO]를 터치하여 [BT 오디오]를 선택해 주세요.
-4. **기기 연결 수 제한**:
-   - 연결되어 있는 기기가 많아 추가 연결이 어려운 경우, [PHONE]을 터치하여 신규 기기 등록 화면으로 가고, [MENU]를 터치한 후 [기기 삭제]를 선택하여 필요 없는 기기를 삭제할 수 있습니다.
-이 과정을 통해 블루투스를 성공적으로 연결하실 수 있습니다! 추가적인 도움이 필요하시면 언제든지 말씀해 주세요.</t>
+3. **연결이 안 될 경우**:
+   - 연결되어 있는 기기가 많아 추가 연결이 어려울 경우, [PHONE]을 터치하여 신규 기기 등록 화면으로 이동합니다.
+   - 우측 상단의 [MENU]를 터치하고, [기기 삭제]를 선택하여 삭제할 기기를 선택 후 삭제합니다.
+이렇게 하면 K5 차량과 블루투스 연결을 완료할 수 있습니다. 추가적인 도움이 필요하시면 쏘카 고객센터(1661-3315)로 문의해 주세요!</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -782,10 +777,10 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>앞 유리 성에를 제거하는 방법은 다음과 같습니다:
-1. **유리 습기 제거 기능**을 사용하세요. 이 기능은 유리에 성에가 끼거나 김이 서렸을 때 시야 확보를 위해 필요합니다.
-2. 차량의 에어컨 및 히터 조작 패널에서 해당 기능을 활성화하면 됩니다.
-이렇게 하면 앞 유리의 성에를 효과적으로 제거할 수 있습니다. 안전 운전하시고, 시야 확보에 유의하세요!</t>
+          <t>앞 유리 성에를 제거하는 방법은 차량의 에어컨 및 히터 기능을 사용하시면 됩니다. 구체적인 방법은 다음과 같습니다:
+1. 유리에 성에 및 김이 서렸을 경우, 습기 제거 기능을 사용해 주세요.
+2. 에어컨 및 히터의 풍량 조절과 풍향 조절을 통해 최적의 상태로 조절합니다.
+이 외에 버튼 위치나 조작 방법에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -815,7 +810,8 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>K5 차량의 주유구는 차량 좌측(운전석 쪽)에 위치해 있습니다. 주유구를 열기 위해서는 주유구를 눌러주시면 됩니다. 주유 시 주의사항도 잊지 마세요!</t>
+          <t>K5의 주유구는 차량 좌측(운전석 쪽)에 위치합니다. 주유구를 열기 위해서는 주유구를 눌러주시면 됩니다. 
+주유를 하실 때는 안전에 유의하시고, 주유가 완료될 때까지 카드를 제거하지 마세요. 추가적인 질문이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -871,8 +867,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>차량 속도 제한이 걸린 것 같다면, 먼저 차량이 가시동 상태인지 확인해 보세요. 가시동 상태일 경우 경고등이 다수 점등되고 엑셀을 밟아도 차가 움직이지 않을 수 있습니다. 이럴 경우에는 시동 버튼을 한 번 또는 두 번 눌러 시동을 끈 뒤, 브레이크를 밟은 상태에서 시동 버튼을 다시 눌러주세요.
-만약 이 방법으로도 문제가 해결되지 않는다면, 차량의 상태를 점검해 보시기 바랍니다. 추가적인 도움이 필요하시다면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -928,8 +923,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>차량의 주유 상태에 대한 정보는 제공된 매뉴얼에 포함되어 있지 않습니다. 주유 상태를 확인하려면 차량의 연료 게이지를 확인하시거나, 주유소에서 직접 확인하셔야 합니다. 
-자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -939,7 +933,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -959,8 +953,8 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>네, K5 차량에는 하이패스가 장착되어 있습니다. 모든 쏘카 차량에는 하이패스 단말기가 포함되어 있어 고속도로 통행료가 자동으로 결제됩니다. 하이패스 비용은 차량 반납 후 주행 요금과 함께 별도로 과금됩니다. 
-궁금한 점이 더 있으시면 언제든지 말씀해 주세요!</t>
+          <t>네, K5 차량에는 하이패스가 장착되어 있습니다. 모든 쏘카 차량에는 하이패스 단말기가 기본으로 설치되어 있어, 고속도로 통행료가 자동으로 결제됩니다. 하이패스 비용은 차량 반납 후 주행 요금과 함께 별도로 과금됩니다. 
+더 궁금한 점이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1016,8 +1010,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>커피 모양의 휴식 경고등은 차량의 운전자가 피로를 느낄 수 있음을 알리는 경고등입니다. 이 경고등이 켜졌을 때는 잠시 휴식을 취하는 것이 좋습니다. 안전 운전을 위해 피로를 느낄 경우에는 반드시 정차하여 휴식을 취한 후 운전하시길 권장합니다. 
-안전이 최우선이니, 필요할 경우 가까운 휴게소나 안전한 장소에 정차하여 충분히 쉬어주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1091,10 +1084,9 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>기어 다이얼이 움직이지 않는 경우, 몇 가지 확인해볼 사항이 있습니다.
-1. **브레이크를 밟고 있는지 확인하세요.** 기어 조절을 하려면 브레이크를 밟은 상태여야 합니다.
-2. **기어가 P 상태인지 확인하세요.** 기어가 P에 있어야 기어 다이얼이 움직일 수 있습니다.
-이 두 가지를 확인한 후에도 문제가 지속된다면, 차량에 문제가 있을 수 있으니 쏘카 고객센터(1661-3315)로 문의해 주세요. 안전 운전하시기 바랍니다!</t>
+          <t>기어 다이얼이 움직이지 않는 경우, 먼저 확인해야 할 사항이 있습니다. 기어가 P(주차) 상태에 있는지 확인해 주세요. 기어가 P 상태가 아닐 경우, 기어 다이얼이 움직이지 않을 수 있습니다.
+또한, 차량이 정지 상태인지 확인해 주시고, 브레이크를 밟고 있는지 확인해 주세요. 이 두 가지 조건이 충족되어야 기어 다이얼이 정상적으로 작동합니다.
+이 외에 추가적인 문제가 발생할 경우, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1124,10 +1116,10 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K8 트렁크 작동 방법은 다음과 같습니다:
-1. **트렁크 사용 버튼**: 운전석 좌측, 핸들 왼쪽 뒤편에 위치한 트렁크 사용 버튼을 눌러서 트렁크를 열 수 있습니다.
-2. **직접 개방**: 트렁크 중앙에 있는 버튼을 눌러서 열 수 있으며, 이때 문 잠금을 해제해야 합니다.
-안전하게 차량을 운전하시기 위해, 트렁크를 열기 전에 항상 문 잠금 상태를 확인해 주세요! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
+          <t>K8 트렁크를 작동하는 방법은 다음과 같습니다.
+1. **트렁크 사용 버튼**: 운전석 좌측, 핸들 왼쪽 뒤편에 위치한 버튼을 눌러서 트렁크를 열 수 있습니다.
+2. **직접 개방**: 트렁크 중앙의 버튼을 눌러서 트렁크를 열 수 있습니다. 이 경우, 문 잠금을 해제해야 트렁크를 열 수 있습니다.
+이렇게 간단하게 트렁크를 사용할 수 있습니다! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1157,15 +1149,19 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>죄송하지만, GV80(초기형)과 GV80의 차이에 대한 정보는 제공된 문서에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
+          <t>Y</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1183,11 +1179,8 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>더 뉴 기아 레이 루프탑 차량의 무시동 히터를 작동시키려면, 차량 뒷면에 있는 컨트롤 패널을 사용해야 합니다. 
-1. 차량의 시동을 켭니다.
-2. 차량 뒷면에 있는 컨트롤 패널의 전원을 켭니다.
-3. 무시동 히터 기능을 선택하여 작동시킵니다.
-이렇게 하면 무시동 히터가 작동하게 됩니다. 추가적인 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>더 뉴 기아 레이 루프탑 차량의 무시동 히터는 차량 뒷면에 있는 컨트롤 패널을 사용하여 작동할 수 있습니다. 
+구체적인 작동 방법은 매뉴얼에 명시되어 있지 않으므로, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1217,7 +1210,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>죄송하지만, 보조석 안전벨트가 고정되어 있는 문제에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 이와 관련된 문제는 쏘카 고객센터(1661-3315)로 문의해 주시면 더 정확한 도움을 받으실 수 있습니다. 감사합니다!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,7 +1240,8 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>더 뉴 기아 레이의 사이드 브레이크(풋 파킹 브레이크)는 브레이크 왼쪽에 위치해 있습니다. 이 브레이크를 꾹 밟아 해제할 수 있으며, 한 번 더 밟으면 풋 파킹 브레이크가 설정됩니다. 운행 전에는 반드시 사이드 브레이크가 해제되었는지 확인해 주세요. 안전 운전을 위해 꼭 체크하시기 바랍니다!</t>
+          <t>더 뉴 기아 레이의 사이드 브레이크(풋 파킹 브레이크)는 브레이크 왼쪽에 위치해 있습니다. 해제하려면 풋 파킹 브레이크를 꾹 밟아주세요. 운행 전에는 반드시 사이드 브레이크가 해제되었는지 확인해 주시기 바랍니다. 
+더 궁금한 점이 있으시면 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1273,10 +1267,10 @@
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr">
         <is>
-          <t>더 뉴 셀토스의 트렁크 작동 방법은 다음과 같습니다:
-1. **문 잠금 해제**: 트렁크를 열기 전에 차량의 문 잠금을 해제해야 합니다.
-2. **트렁크 열기**: 트렁크 손잡이에 손을 넣고 안쪽을 눌러 트렁크를 엽니다.
-이렇게 하면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으면 언제든지 말씀해 주세요!</t>
+          <t>더 뉴 셀토스의 트렁크를 여는 방법은 다음과 같습니다:
+1. **문 잠금을 해제**해야 트렁크를 열 수 있습니다.
+2. 트렁크 손잡이에 손을 넣고 안쪽을 눌러 트렁크를 엽니다.
+이렇게 하면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으시면 언제든지 문의해 주세요!</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1307,10 +1301,9 @@
       <c r="D30" t="inlineStr">
         <is>
           <t>더 뉴 아반떼의 사이드 브레이크 작동 방법은 다음과 같습니다:
-1. **브레이크를 밟습니다.**
-2. **사이드 브레이크의 앞버튼을 누른 상태에서 사이드 브레이크를 잠시 위로 들었다가 내려주세요.**
-간혹 사이드 브레이크 해제 시 힘이 필요할 수 있으니 주의해 주세요. 또한, 운행 전에는 사이드 브레이크가 해제되었는지 꼭 확인하시기 바랍니다. 
-더 궁금한 점이 있으시면 언제든지 말씀해 주세요!</t>
+1. 브레이크를 밟고 사이드 브레이크의 앞버튼을 누른 상태에서 사이드 브레이크를 잠시 위로 들었다가 내려주세요.
+2. 간혹 사이드 브레이크 해제 시 힘이 필요한 경우가 있으니 주의해 주세요.
+또한, 운행 전에는 사이드 브레이크가 해제되었는지 꼭 확인해 주세요. 사이드 브레이크를 해제하지 않고 운행할 경우 경고음이 발생합니다. 안전 운전을 위해 이 점을 유의하시기 바랍니다!</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1341,9 +1334,9 @@
       <c r="D31" t="inlineStr">
         <is>
           <t>더 뉴 코나의 트렁크를 여는 방법은 다음과 같습니다:
-1. **문 잠금 해제**: 트렁크를 열기 전에 차량의 문 잠금을 해제해야 합니다.
-2. **트렁크 손잡이 조작**: 트렁크 손잡이에 손을 넣고 안쪽을 누르면서 트렁크를 엽니다.
-이렇게 하면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으면 언제든지 말씀해 주세요!</t>
+1. 문 잠금을 해제해야 트렁크를 열 수 있습니다.
+2. 트렁크 손잡이에 손을 넣고 안쪽을 눌러 트렁크를 엽니다.
+이렇게 하시면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으시면 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1374,10 +1367,10 @@
       <c r="D32" t="inlineStr">
         <is>
           <t>디 올 뉴 팰리세이드의 3열 좌석을 여는 방법은 다음과 같습니다:
-1. **3열 시트 조절 버튼 위치**: 3열 좌석 뒤쪽(트렁크 부분) 왼쪽에 위치한 3열 시트 조절 버튼을 찾습니다.
-2. **버튼 조작**: 해당 버튼을 눌러 2열 또는 3열 좌석의 등받이를 접습니다. 
-3. **원위치**: 다시 등받이를 원위치로 돌리려면 동일하게 버튼을 눌러주세요.
-이렇게 하면 3열 좌석을 쉽게 열 수 있습니다! 추가로 궁금한 점이 있으면 언제든지 물어보세요.</t>
+1. 3열 좌석 뒤쪽 (트렁크 부분) 왼쪽에 있는 3열 시트 조절 버튼을 눌러주세요.
+2. 이 버튼을 통해 2열 또는 3열 좌석의 등받이를 접을 수 있습니다.
+※ 등받이를 원위치 할 때도 동일하게 버튼을 눌러주시면 됩니다.
+안전하게 조작하시기 바랍니다! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1407,8 +1400,8 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>스타리아 차량은 4열 좌석이 폴딩이 가능합니다. 4열 좌석 폴딩 고리를 잡아당겨서 등받이를 올리거나 내릴 수 있으며, 4열 좌석 뒤 손잡이를 들어 올리면서 시트 앞뒤 간격을 조절할 수 있습니다. 
-더 궁금한 점이 있으시면 언제든지 물어보세요!</t>
+          <t>스타리아 차량은 4열 좌석을 폴딩할 수 있습니다. 4열 좌석 폴딩 고리를 잡아당겨서 등받이를 올리거나 내릴 수 있으며, 4열 좌석 뒤 손잡이를 들어 올리면서 시트 앞뒤 간격을 조절할 수 있습니다. 
+더 궁금한 점이 있으시면 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1434,7 +1427,7 @@
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr">
         <is>
-          <t>죄송하지만, 스타리아 라운지 캠퍼 4의 무시동 히터에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1542,7 +1535,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>죄송하지만, 아이오닉 9의 V2L 기능에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1572,8 +1565,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>아이오닉 6 차량의 배터리 동기화 후 계기판에 불이 켜졌다면, 충전에는 문제가 생길 수 있습니다. 하지만 제공된 매뉴얼에는 배터리 동기화와 관련된 구체적인 정보가 포함되어 있지 않기 때문에, 정확한 원인이나 해결 방법을 안내드리기 어렵습니다.
-이와 관련하여 더 자세한 정보가 필요하시다면 쏘카 고객센터(1661-3315)로 문의해 주시기 바랍니다. 안전 운전하시고, 차량에 문제가 생기지 않도록 주의해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1603,7 +1595,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>죄송하지만, 더 뉴 카니발의 카시트 고정장치(isofix)에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1633,8 +1625,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>더 뉴 카니발은 9인승 모델이지만, 보조 좌석을 추가로 사용할 수 있는 기능이 있습니다. 트렁크에 있는 폴딩 고리를 잡아 당기면 보조 좌석을 사용할 수 있으니, 이 기능을 활용해 보시기 바랍니다. 
-만약 보조 좌석이 제대로 작동하지 않거나 다른 문제가 있다면, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1644,7 +1635,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
     </row>
@@ -1667,7 +1658,7 @@
           <t>더 뉴 캐스퍼의 사이드 브레이크 작동 방법은 다음과 같습니다:
 1. **켜기**: 차량이 정지해 있을 때 브레이크를 밟은 상태에서 버튼을 위로 올려주세요.
 2. **끄기**: 브레이크를 밟은 상태에서 버튼을 내려주세요.
-이 사이드 브레이크는 전자식으로 작동하며, 운전 중에는 반드시 해제 여부를 확인해 주세요. 안전 운전을 위해 꼭 기억해 주세요!</t>
+운행 전에는 전자식 파킹 브레이크 해제 여부를 꼭 확인해 주세요. 추가적인 질문이 있으시면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1719,7 +1710,7 @@
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
-          <t>죄송하지만, 2열 시트를 접는 방법에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1767,7 +1758,7 @@
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr">
         <is>
-          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 어라운드 뷰 기능에 대한 여부는 확인할 수 없으니, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1793,8 +1784,7 @@
       <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr">
         <is>
-          <t>K5 차량의 열선 시트 버튼은 운전석과 동승석에 각각 위치해 있습니다. 하지만 구체적인 버튼 위치에 대한 정보는 제공된 매뉴얼에 포함되어 있지 않습니다. 
-열선 시트를 사용하시려면, 해당 버튼을 찾아서 눌러주시면 됩니다. 만약 버튼 위치가 궁금하시다면, 차량 내에서 직접 확인해 보시거나, 추가적인 도움이 필요하시면 쏘카 고객센터(1661-3315)로 문의해 주세요. 안전 운전하시기 바랍니다!</t>
+          <t>열선 시트 버튼의 위치에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1804,7 +1794,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1820,7 +1810,7 @@
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr">
         <is>
-          <t>고객님, 아이오닉 5는 전기차입니다. 전기차는 최소 충전량 50% 이상으로 반납하는 것이 권장되며, 충전은 운전석 대시보드 앞 리더기에 있는 쏘카 전기충전 카드를 통해 진행하셔야 합니다. 추가로 궁금한 점이 있으시면 언제든지 말씀해 주세요!</t>
+          <t>고객님, 아이오닉 5는 전기차입니다. 전기차를 예약하신 회원님 모두가 넉넉한 충전량으로 이용하실 수 있도록, 최소 충전량 50% 이상 반납을 권장 드립니다. 추가적인 질문이 있으시면 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1868,8 +1858,7 @@
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K5 차량에는 열선 기능이 있습니다. 핸들 열선 버튼이 장착되어 있어, 추운 날씨에 손을 따뜻하게 유지할 수 있습니다. 동승석에도 열선 시트가 있어, 탑승객도 따뜻하게 앉을 수 있습니다. 
-더 궁금한 점이 있으시면 말씀해 주세요!</t>
+          <t>K5 차량에는 핸들 열선 기능이 있습니다. 하지만 핸들 열선 버튼의 위치나 조작 방법에 대한 구체적인 정보는 매뉴얼에 포함되어 있지 않습니다. 따라서, 열선 기능의 사용 여부나 조작 방법에 대한 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">

--- a/data/FAQ_260121.xlsx
+++ b/data/FAQ_260121.xlsx
@@ -1789,7 +1789,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">

--- a/data/FAQ_260121.xlsx
+++ b/data/FAQ_260121.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>답변</t>
+          <t>테스트 차종</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -456,12 +456,17 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Zendesk 포함 여부</t>
+          <t>차량매뉴얼 응답</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>정상 답변 여부</t>
+          <t>Help Center 응답</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Hallucination 없음</t>
         </is>
       </c>
     </row>
@@ -474,7 +479,11 @@
           <t>(전자식) 시트 조절 방법이 궁금해요</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -482,10 +491,15 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -502,7 +516,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>쏘카 전체 차량의 경우 기본 순정 옵션 차량으로 운영되고 있으며, 운영되고 있는 차량이 많아 차량의 제원/ 연식, 배기량, 트림, 구동 방식 등 정확한 차량 옵션에 대해서 정확한 안내를 드리기 어려우나 4륜 구동의 경우 차량명 앞에 4WD라고 명시되어 있음</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -512,10 +526,15 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -532,7 +551,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>해당 기능 옵션으로 차량 변경은 어렵다.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -542,10 +561,15 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -560,7 +584,11 @@
           <t>USB를 꽂았는데 충전이 안돼요</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>아이오닉 5</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -568,10 +596,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -588,7 +621,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>물티슈로 이물질을 닦고 재확인. 그래도 경고음 계속된다면 다시 문의</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -601,7 +634,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -614,16 +656,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>가시동 상태임</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>차량 경고등이 점등되고 엑셀을 밟아도 차가 움직이지 않는 경우에는 가시동 상태일 수 있습니다. 이럴 때는 다음과 같이 해주세요:
+          <t>차량 경고등이 뜨고 엑셀을 밟아도 차가 움직이지 않는 경우, 가시동 상태일 수 있습니다. 이럴 때는 다음 단계를 따라 해 보세요:
 1. 시동 버튼을 한 번 또는 두 번 눌러 시동을 끕니다.
 2. 브레이크를 밟은 상태에서 시동 버튼을 다시 눌러 시동을 겁니다.
-또한, 기어가 P에 있는지 확인하는 것도 중요합니다. 기어가 P 상태일 때만 시동이 걸리니 꼭 확인해 주세요.
-안전 운전하시고, 추가적인 도움이 필요하시면 언제든지 말씀해 주세요!</t>
+또한, 기어가 P에 있는지 확인하는 것도 중요합니다. 기어가 P 상태일 때만 시동이 걸립니다. 
+이 방법으로도 문제가 해결되지 않으면, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요. 안전 운전 하세요!</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -632,6 +674,11 @@
         </is>
       </c>
       <c r="F7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -648,7 +695,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>차량 문을 다 닫았는 지 확인</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -661,7 +708,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -674,13 +730,13 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>문 잠금 해제를 한 후 충전구를 열어야 함.</t>
+          <t>니로 EV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>니로 EV 차량의 전기 충전구가 열리지 않는 경우, 충전구 개폐를 위해 충전구를 눌러보시기 바랍니다. 충전구는 차량 전면부(본넷 하단)에 위치해 있습니다. 
-만약 여전히 열리지 않는다면, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>니로 EV 차량의 전기 충전구가 열리지 않는 경우, 충전구를 개폐하기 위해서는 충전구를 눌러야 합니다. 충전구는 차량 전면부(본넷 하단)에 위치해 있습니다. 
+만약 충전구가 여전히 열리지 않는다면, 차량의 매뉴얼에 해당 정보가 포함되어 있지 않으므로, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -689,6 +745,11 @@
         </is>
       </c>
       <c r="F9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -705,7 +766,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>본넷 활짝 열은 다음 본넷 사이로 손가락 넣어서 걸리는 고리나 버튼 당기거나 옆으로 밀어서 닫아야함</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -718,7 +779,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -731,23 +801,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>1. [설정] 또는 [SETUP] ▷ [기기 연결] ▷ [신규 추가] 버튼을 차례로 눌러주세요. 
-2. 핸드폰 블루투스 설정에서 차량 이름 확인 후 선택하여 블루투스를 연결 시도 부탁</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>K5 차량의 블루투스 연결 방법은 다음과 같습니다:
-1. **아틀란 내비게이션 사용 시**:
-   - 우측의 [PHONE] 버튼을 터치합니다.
-   - 우측 하단의 버튼을 눌러 [예]를 선택합니다.
-2. **휴대폰 블루투스 설정**:
-   - 휴대폰의 블루투스 설정에서 예약하신 차량명(K5)을 선택합니다.
-   - 내비게이션 화면에서 패스워드 일치 여부를 묻는 안내창이 나오면 [예]를 선택합니다.
-3. **연결이 안 될 경우**:
-   - 연결되어 있는 기기가 많아 추가 연결이 어려울 경우, [PHONE]을 터치하여 신규 기기 등록 화면으로 이동합니다.
-   - 우측 상단의 [MENU]를 터치하고, [기기 삭제]를 선택하여 삭제할 기기를 선택 후 삭제합니다.
-이렇게 하면 K5 차량과 블루투스 연결을 완료할 수 있습니다. 추가적인 도움이 필요하시면 쏘카 고객센터(1661-3315)로 문의해 주세요!</t>
+1. **내비게이션에서 설정**: 아틀란 내비게이션의 경우, 우측의 [PHONE] 버튼을 터치한 후, 우측 하단의 버튼을 눌러 [예]를 선택합니다. 순정(UVO) 내비게이션의 경우, 메인 화면에서 [설정] &gt; [기기연결] &gt; [신규 기기 추가]를 차례로 선택합니다.
+2. **휴대폰 블루투스 설정**: 휴대폰의 블루투스 설정에서 예약하신 차량명(K5)을 선택합니다. 내비게이션 화면에서 패스워드 일치 여부를 묻는 안내창이 나오면 [예]를 선택합니다.
+3. **연결 확인**: 연결이 완료되면, 차량의 블루투스 기능이 활성화됩니다.
+※ 만약 볼륨을 키워도 소리가 나오지 않는 경우, 우측의 [AUDIO]를 터치하여 [BT 오디오]를 선택해 주세요.
+이렇게 블루투스를 연결하실 수 있습니다. 추가적인 도움이 필요하시면 쏘카 고객센터(1661-3315)로 문의해 주세요!</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -756,6 +820,11 @@
         </is>
       </c>
       <c r="F11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -772,15 +841,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>성에 제거 버튼(화살표 버튼) 눌러서 제거 필요. 바로 사라지지는 않음</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
           <t>앞 유리 성에를 제거하는 방법은 차량의 에어컨 및 히터 기능을 사용하시면 됩니다. 구체적인 방법은 다음과 같습니다:
-1. 유리에 성에 및 김이 서렸을 경우, 습기 제거 기능을 사용해 주세요.
-2. 에어컨 및 히터의 풍량 조절과 풍향 조절을 통해 최적의 상태로 조절합니다.
-이 외에 버튼 위치나 조작 방법에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+1. 유리에 성에가 끼거나 김이 서렸을 경우, 습기 제거 기능을 사용합니다.
+2. 에어컨 및 히터 조작을 통해 유리의 습기를 제거해 주세요.
+차량에 따라 공조 장치가 다를 수 있으니, 조작 방법은 차량의 매뉴얼을 참고하시기 바랍니다. 추가적인 정보가 필요하시면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -789,6 +858,11 @@
         </is>
       </c>
       <c r="F12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -805,13 +879,13 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>해당 차량 운전석 바닥면에 주유구 버튼을 누르고 주유구를 손으로 열면 됨</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>K5의 주유구는 차량 좌측(운전석 쪽)에 위치합니다. 주유구를 열기 위해서는 주유구를 눌러주시면 됩니다. 
-주유를 하실 때는 안전에 유의하시고, 주유가 완료될 때까지 카드를 제거하지 마세요. 추가적인 질문이 있으시면 언제든지 말씀해 주세요!</t>
+주유 시 안전을 위해 주의해 주세요! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -820,6 +894,11 @@
         </is>
       </c>
       <c r="F13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -836,7 +915,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>사이드 브레이크 해제 안내</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -849,7 +928,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -862,7 +950,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>스마트 크루즈 기능이 켜져 있을 경우 속도 제한이 있을 수 있습니다.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -872,10 +960,15 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -892,7 +985,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>운영 차량 많아 차량의 제원/ 연식, 배기량, 트림, 구동 방식 등 옵션 안내 어려움 양해</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -905,7 +998,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -918,7 +1020,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2시간 전 앱 내 스마트 키를 통해 확인 가능합니다.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -928,12 +1030,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -948,12 +1055,13 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>쏘카 차량에는 하이패스가 장착되어 있음.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>네, K5 차량에는 하이패스가 장착되어 있습니다. 모든 쏘카 차량에는 하이패스 단말기가 기본으로 설치되어 있어, 고속도로 통행료가 자동으로 결제됩니다. 하이패스 비용은 차량 반납 후 주행 요금과 함께 별도로 과금됩니다. 
+          <t>네, 모든 쏘카 차량에는 하이패스가 장착되어 있습니다. 따라서 K5 차량에도 하이패스 단말기가 포함되어 있습니다. 이 단말기를 통해 고속도로 통행료가 자동으로 결제되며, 하이패스 비용은 차량 반납 후 주행 요금과 함께 별도로 과금됩니다. 
+추가로, 하이패스를 인식할 수 없다는 경고음이 발생하더라도 하이패스 구간은 이용할 수 있습니다. 이용한 하이패스 요금은 추후 결제됩니다. 
 더 궁금한 점이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
@@ -963,6 +1071,11 @@
         </is>
       </c>
       <c r="F18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -979,7 +1092,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>카플레이어는 지원되지만 선이 따로 구비되어 있지는 않음.</t>
+          <t>더 뉴 기아 레이</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -992,7 +1105,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1005,7 +1127,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>오랜시간 운전으로 휴식등이 켜진 것으로 차에 문제가 있는 건 아닙니다.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1015,10 +1137,15 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1033,7 +1160,11 @@
           <t>파노라마 썬루프가 설치되어 있나요?</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>죄송합니다. '파노라마 썬루프가 설치되어 있나요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1044,7 +1175,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1055,7 +1195,11 @@
           <t>후방 와이퍼는 어떻게 사용하나요?</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr"/>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
           <t>죄송합니다. '후방 와이퍼는 어떻게 사용하나요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1066,7 +1210,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1079,14 +1232,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>브레이크를 밟은 상태에서 움직일것, P단으로 변경했다가 다시 변경할 것.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>기어 다이얼이 움직이지 않는 경우, 먼저 확인해야 할 사항이 있습니다. 기어가 P(주차) 상태에 있는지 확인해 주세요. 기어가 P 상태가 아닐 경우, 기어 다이얼이 움직이지 않을 수 있습니다.
-또한, 차량이 정지 상태인지 확인해 주시고, 브레이크를 밟고 있는지 확인해 주세요. 이 두 가지 조건이 충족되어야 기어 다이얼이 정상적으로 작동합니다.
-이 외에 추가적인 문제가 발생할 경우, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>기어 다이얼이 움직이지 않는 경우, 먼저 다음 사항을 확인해 주세요:
+1. **브레이크를 밟고 있는지 확인**: 기어 조절을 위해서는 브레이크를 밟고 있어야 합니다.
+2. **기어가 P 상태인지 확인**: 기어가 P(주차) 상태에 있어야 시동이 걸리며 기어 다이얼이 움직일 수 있습니다.
+이 두 가지를 확인한 후에도 문제가 해결되지 않으면, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1095,6 +1249,11 @@
         </is>
       </c>
       <c r="F23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1111,15 +1270,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>핸들 왼쪽 뒤편에 버튼 있음 . 직접 개방 시 트렁크 중앙 버튼 누르면 됨/누르기 전 문잠금 해제 필요</t>
+          <t>K8</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>K8 트렁크를 작동하는 방법은 다음과 같습니다.
-1. **트렁크 사용 버튼**: 운전석 좌측, 핸들 왼쪽 뒤편에 위치한 버튼을 눌러서 트렁크를 열 수 있습니다.
-2. **직접 개방**: 트렁크 중앙의 버튼을 눌러서 트렁크를 열 수 있습니다. 이 경우, 문 잠금을 해제해야 트렁크를 열 수 있습니다.
-이렇게 간단하게 트렁크를 사용할 수 있습니다! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
+          <t>K8 트렁크를 작동하는 방법은 다음과 같습니다:
+1. **트렁크 사용 버튼 위치**: 운전석 좌측, 핸들 왼쪽 뒤편에 있습니다. 이 버튼을 눌러 트렁크를 열 수 있습니다.
+2. **직접 개방 방법**: 트렁크 중앙의 버튼을 눌러서 열 수 있습니다. 단, 문 잠금을 해제해야 트렁크를 열 수 있습니다.
+이렇게 두 가지 방법으로 K8의 트렁크를 사용할 수 있습니다. 추가적인 질문이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1128,6 +1287,11 @@
         </is>
       </c>
       <c r="F24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1144,7 +1308,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>초기형과의 차이는 디자인(그릴, 헤드램프, 휠), 실내 디스플레이 및 상품성임. 초기형은 한 줄 그릴, 프로젝션 타입 헤드램프, 두툼한 엠블럼이 특징이며, 페이스리프트 모델은 두 줄 그릴, MLA 방식 헤드램프, 27인치 OLED 디스플레이, 달라진 휠 디자인 등을 갖춘 차이점이 있음</t>
+          <t>GV80</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1154,10 +1318,15 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1174,21 +1343,25 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>무시동 히터 아래 OK 버튼을 5초간 길게 눌러서 작동</t>
+          <t>더 뉴 기아 레이</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>더 뉴 기아 레이 루프탑 차량의 무시동 히터는 차량 뒷면에 있는 컨트롤 패널을 사용하여 작동할 수 있습니다. 
-구체적인 작동 방법은 매뉴얼에 명시되어 있지 않으므로, 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>죄송합니다. '더 뉴 기아 레이 루프탑 차량 무시동 히터를 어떻게 작동하나요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1205,20 +1378,25 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>시트 등받이를 최대하 뒤로 젖혀서 벨트에 걸리는 힘을 줄이고 벨트 버클과 벨트 본체가 붙어 있느 쪽 손으로 잡고 앞뒤로 흔드는데 벨트 수직에 가깝게 맞추고 천천히 풀어주셔야됨</t>
+          <t>더 뉴 기아 레이</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>죄송합니다. '더 뉴 기아 레이의 보조석 안전벨트가 고정되어 있어서 사용이 불가능해요.'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1235,21 +1413,25 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>풋 브레이크 안내</t>
+          <t>더 뉴 기아 레이</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>더 뉴 기아 레이의 사이드 브레이크(풋 파킹 브레이크)는 브레이크 왼쪽에 위치해 있습니다. 해제하려면 풋 파킹 브레이크를 꾹 밟아주세요. 운행 전에는 반드시 사이드 브레이크가 해제되었는지 확인해 주시기 바랍니다. 
-더 궁금한 점이 있으시면 말씀해 주세요!</t>
+          <t>죄송합니다. '더 뉴 기아 레이의 사이드 브레이크 위치를 알려주세요.'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1264,21 +1446,27 @@
           <t>더 뉴 셀토스의 트렁크 작동방법을 알려주세요</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>더 뉴 셀토스</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>더 뉴 셀토스의 트렁크를 여는 방법은 다음과 같습니다:
-1. **문 잠금을 해제**해야 트렁크를 열 수 있습니다.
-2. 트렁크 손잡이에 손을 넣고 안쪽을 눌러 트렁크를 엽니다.
-이렇게 하면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으시면 언제든지 문의해 주세요!</t>
+          <t>죄송합니다. '더 뉴 셀토스의 트렁크 작동방법을 알려주세요'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1295,15 +1483,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>뒷좌석으로 이동하여 두손으로 당겨서 사이드 브레이크 사용. 차량 특성상 사이드가 끝까지 올려지는 상황이 있어서 주의 필요</t>
+          <t>더 뉴 아반떼</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
           <t>더 뉴 아반떼의 사이드 브레이크 작동 방법은 다음과 같습니다:
-1. 브레이크를 밟고 사이드 브레이크의 앞버튼을 누른 상태에서 사이드 브레이크를 잠시 위로 들었다가 내려주세요.
-2. 간혹 사이드 브레이크 해제 시 힘이 필요한 경우가 있으니 주의해 주세요.
-또한, 운행 전에는 사이드 브레이크가 해제되었는지 꼭 확인해 주세요. 사이드 브레이크를 해제하지 않고 운행할 경우 경고음이 발생합니다. 안전 운전을 위해 이 점을 유의하시기 바랍니다!</t>
+1. 브레이크를 밟습니다.
+2. 사이드 브레이크의 앞버튼을 누른 상태에서 사이드 브레이크를 잠시 위로 들었다가 내려주세요.
+간혹 사이드 브레이크 해제 시 힘이 필요한 경우가 있으니 주의해 주세요. 운행 전에는 사이드 브레이크 해제 여부를 꼭 확인하시기 바랍니다.</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1312,6 +1500,11 @@
         </is>
       </c>
       <c r="F30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1328,15 +1521,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>문잠금 해제 후 트렁크 손잡이 안쪽에 손을 넣고 열면 됨.</t>
+          <t>더 뉴 코나</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>더 뉴 코나의 트렁크를 여는 방법은 다음과 같습니다:
+          <t>더 뉴 코나의 트렁크 작동 방법은 다음과 같습니다:
 1. 문 잠금을 해제해야 트렁크를 열 수 있습니다.
-2. 트렁크 손잡이에 손을 넣고 안쪽을 눌러 트렁크를 엽니다.
-이렇게 하시면 트렁크를 쉽게 열 수 있습니다. 추가로 궁금한 점이 있으시면 말씀해 주세요!</t>
+2. 트렁크 손잡이에 손을 넣고 안쪽을 누르며 트렁크를 엽니다.
+이렇게 하면 트렁크를 쉽게 열 수 있습니다. 추가적인 질문이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1345,6 +1538,11 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1361,24 +1559,25 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>폴딩고리를 당겨서 이용</t>
+          <t>더 뉴 팰리세이드</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>디 올 뉴 팰리세이드의 3열 좌석을 여는 방법은 다음과 같습니다:
-1. 3열 좌석 뒤쪽 (트렁크 부분) 왼쪽에 있는 3열 시트 조절 버튼을 눌러주세요.
-2. 이 버튼을 통해 2열 또는 3열 좌석의 등받이를 접을 수 있습니다.
-※ 등받이를 원위치 할 때도 동일하게 버튼을 눌러주시면 됩니다.
-안전하게 조작하시기 바랍니다! 추가적인 질문이 있으시면 언제든지 말씀해 주세요.</t>
+          <t>죄송합니다. '더 뉴 팰리세이드 3열 좌석을 여는 방법이 어떻게 되나요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1395,13 +1594,13 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>스타리아 차종도 폴딩이 가능합니다.</t>
+          <t>스타리아</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>스타리아 차량은 4열 좌석을 폴딩할 수 있습니다. 4열 좌석 폴딩 고리를 잡아당겨서 등받이를 올리거나 내릴 수 있으며, 4열 좌석 뒤 손잡이를 들어 올리면서 시트 앞뒤 간격을 조절할 수 있습니다. 
-더 궁금한 점이 있으시면 말씀해 주세요!</t>
+더 궁금한 점이 있으시면 언제든지 말씀해 주세요!</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1410,6 +1609,11 @@
         </is>
       </c>
       <c r="F33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1424,7 +1628,11 @@
           <t>스타리아 캠퍼4 무시동 히터에 대한 자세한 설명이 듣고싶어요</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr"/>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>스타리아</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
           <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1432,10 +1640,15 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1452,7 +1665,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>외부 전력 공급선에 220v를 연결해야 함.</t>
+          <t>스타리아</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1465,7 +1678,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1478,7 +1700,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>팝업 컨트롤러 전원을 켜야하며, 켜지지 않는다면 외부 전력 공급을 해야함.</t>
+          <t>스타리아</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1491,7 +1713,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1504,12 +1735,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>승차 시 2열 좌석 측면 하단의 버튼을 눌러 등받이를 접고 3열 좌석으로 이동하여 승차할 수 있음. 하차 시에는 2열 좌석 헤드레스트의 버튼을 눌러 등받이를 접고 하차가 가능하시며 레버를 들어올린 상태에서 접힌 등받이를 바로 세워주시어 이용하면 됨</t>
+          <t>쏘렌토</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>죄송합니다. '쏘렌토 7인승을 예약했는데 5인승이에요'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1517,7 +1748,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1530,7 +1770,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>쏘카 전체 차량의 경우 기본 순정 옵션 차량으로 운영되고 있으며, 운영되고 있는 차량이 많아 차량의 제원/연식, 배기량, 트림, 구동 방식 등 정확한 차량 옵션에 대해서 정확한 안내를 드리기 어려운 점</t>
+          <t>아이오닉 9</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1540,10 +1780,15 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1560,7 +1805,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>배터리 컨디셔닝 기능으로 충전에는 문제가 없습니다.</t>
+          <t>아이오닉 6</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1570,10 +1815,15 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1590,7 +1840,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>쏘카 전체 차량의 경우 기본 순정 옵션 차량으로 운영되고 있으며, 운영되고 있는 차량이 많아 차량의 제원/연식, 배기량, 트림, 구동 방식 등 정확한 차량 옵션에 대해서 정확한 안내를 드리기 어려운 점</t>
+          <t>카니발</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1600,10 +1850,15 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1620,12 +1875,14 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>트렁크 쪽 접힌 좌석에 고리를 당기시면 좌석을 펼 수 있습니다</t>
+          <t>카니발</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>카니발 9인승 차량은 기본 좌석이 6개(운전석, 조수석 포함)와 보조좌석 3개로 구성되어 있습니다. 만약 6좌석만 보이신다면, 보조좌석이 접혀 있거나 사용되지 않고 있을 수 있습니다.
+보조좌석을 사용하려면 트렁크에 있는 폴딩 고리를 잡아당기면 됩니다. 보조좌석을 접으려면 폴딩 고리를 잡아당기면서 등받이를 밀어주세요.
+차량에 대한 더 자세한 정보가 필요하시다면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1636,6 +1893,11 @@
       <c r="F41" t="inlineStr">
         <is>
           <t>N</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Y</t>
         </is>
       </c>
     </row>
@@ -1650,15 +1912,16 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>차량 왼쪽 아래에 사이드 브레이크를 작동하여 해제할 수 있습니다.</t>
+          <t>캐스퍼</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>더 뉴 캐스퍼의 사이드 브레이크 작동 방법은 다음과 같습니다:
-1. **켜기**: 차량이 정지해 있을 때 브레이크를 밟은 상태에서 버튼을 위로 올려주세요.
-2. **끄기**: 브레이크를 밟은 상태에서 버튼을 내려주세요.
-운행 전에는 전자식 파킹 브레이크 해제 여부를 꼭 확인해 주세요. 추가적인 질문이 있으시면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>캐스퍼의 사이드 브레이크(풋 파킹 브레이크) 작동 방법은 다음과 같습니다.
+1. 브레이크 왼쪽에 있는 풋 파킹 브레이크를 꾹 밟아 해제해 주세요.
+2. 한 번 더 밟을 경우 풋 파킹 브레이크가 설정됩니다.
+운행 전에는 사이드 브레이크가 해제되었는지 꼭 확인해 주세요. 만약 해제하지 않고 운행할 경우 경고음이 발생합니다. 
+안전 운전하세요!</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1667,6 +1930,11 @@
         </is>
       </c>
       <c r="F42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1683,7 +1951,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>L단이 존재해서 L단으로 기어를 둘 경우 속도 제한이 있을 수 있음.</t>
+          <t>캐스퍼</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1696,7 +1964,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1707,7 +1984,11 @@
           <t>제가 탑승할/탑승하고 있는 차 2열 시트를 접을 수 있나요?</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr"/>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1715,10 +1996,15 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1733,7 +2019,11 @@
           <t>제가 탑승할/탑승하고 있는 차는 몇인승인가요?</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr"/>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
           <t>죄송합니다. '제가 탑승할/탑승하고 있는 차는 몇인승인가요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1744,7 +2034,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1755,7 +2054,11 @@
           <t>제가 탑승할/탑승하고 있는 차량에 어라운드 뷰가 있나요?</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr"/>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1763,10 +2066,15 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1781,10 +2089,14 @@
           <t>제가 탑승할/탑승하고 있는 차량의 열선 시트 버튼이 어디에 있나요?</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr"/>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>열선 시트 버튼의 위치에 대한 정보는 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1793,6 +2105,11 @@
         </is>
       </c>
       <c r="F47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1807,18 +2124,27 @@
           <t>제가 탑승할/탑승하고 있는 차량이 휘발유/경유/전기/하이브리드 중 어떤 종류인가요?</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr"/>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>고객님, 아이오닉 5는 전기차입니다. 전기차를 예약하신 회원님 모두가 넉넉한 충전량으로 이용하실 수 있도록, 최소 충전량 50% 이상 반납을 권장 드립니다. 추가적인 질문이 있으시면 말씀해 주세요!</t>
+          <t>해당 정보가 매뉴얼에 포함되어 있지 않습니다. 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1833,7 +2159,11 @@
           <t>제가 탑승할/탑승하고 있는 차에 견인고리가 있나요?</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr"/>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
           <t>죄송합니다. '제가 탑승할/탑승하고 있는 차에 견인고리가 있나요?'에 대한 관련 정보를 찾을 수 없습니다. 다른 질문을 해주시거나, 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
@@ -1844,7 +2174,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -1855,18 +2194,29 @@
           <t>제가 탑승할/탑승하고 있는 차에 열선이 있나요?</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr"/>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>K5</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>K5 차량에는 핸들 열선 기능이 있습니다. 하지만 핸들 열선 버튼의 위치나 조작 방법에 대한 구체적인 정보는 매뉴얼에 포함되어 있지 않습니다. 따라서, 열선 기능의 사용 여부나 조작 방법에 대한 자세한 내용은 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
+          <t>K5 차량에는 핸들 열선 기능이 있습니다. 하지만 열선 시트에 대한 정보는 제공된 매뉴얼에 포함되어 있지 않습니다. 
+열선 핸들은 차량 내에서 사용 가능하며, 열선 시트는 동승석에 장착되어 있습니다. 
+자세한 사항이나 추가적인 질문이 있으시면 쏘카 고객센터(1661-3315)로 문의해 주세요.</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>N</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Y</t>
         </is>
@@ -1883,7 +2233,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>쏘카는 4계절 타이어로 운영되고 있습니다.</t>
+          <t>K5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1896,7 +2246,16 @@
           <t>N</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Y</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
